--- a/biology/Botanique/Débit_(bois)/Débit_(bois).xlsx
+++ b/biology/Botanique/Débit_(bois)/Débit_(bois).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9bit_(bois)</t>
+          <t>Débit_(bois)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le débit est une façon d'orienter la pièce de bois avant de la découper pour obtenir un aspect ou une caractéristique particulière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9bit_(bois)</t>
+          <t>Débit_(bois)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Les différents débits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le débit en plot
 Débit le plus courant, le débit en plot est une technique simple et rapide. Toutes les planches sont sciées selon le même plan longitudinal. On obtient alors des planches de différents types. 
 Lorsque le trait de scie, parallèle à l'axe du tronc, est tangent à celui-ci, on parle de « débit sur dosse ». On parle alors d'une planche à l'aspect flammé.
 Lorsque le trait de scie est médian au tronc, on parle de « débit sur quartier ». On parle alors d'une planche à l'aspect maillé.
-Entre ces deux types on retrouve les fausses dosses et faux quartiers[1].
+Entre ces deux types on retrouve les fausses dosses et faux quartiers.
 Le débit sur dosse
-Le débit sur dosse est aussi beaucoup utilisé. On retrouve particulièrement ce type de sciage pour le résineux et bois à fort taux d'aubier. Les planches sont alors débarrassées de leur rive. On parle alors de planches avivées[1]. 
+Le débit sur dosse est aussi beaucoup utilisé. On retrouve particulièrement ce type de sciage pour le résineux et bois à fort taux d'aubier. Les planches sont alors débarrassées de leur rive. On parle alors de planches avivées. 
 Le débit Moreau
 Ce débit est beaucoup moins courant car il nécessite une manutention importante. Une série de sciages perpendiculaires permet l'obtention d'une part importante de bois de quartier. 
 Le débit sur quartier dit « hollandais »
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9bit_(bois)</t>
+          <t>Débit_(bois)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Vocabulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Couper à bois debout – couper perpendiculairement au fil, à la fibre du bois. « Bois de bout » désigne aussi la face libérée par cette découpe montrant les cernes ou anneaux de croissance.</t>
         </is>
